--- a/src/test/resources/Datadriven/Clientes.xlsx
+++ b/src/test/resources/Datadriven/Clientes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dat-bc\BANCOLOMBIA\AUTOMATIZACIONES\SUCURSALES\AW1177001_SUC_Test\Apertura_Cuentas_Ahorros\src\test\resources\Datadriven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dat-bc\BANCOLOMBIA\AUTOMATIZACIONES\CleanCode\excel-a-feature\src\test\resources\Datadriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>clientType</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>Yepez Camargo</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Camilo Andres</t>
+  </si>
+  <si>
+    <t>Arango Suarez</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Jaramillo Lopez</t>
   </si>
 </sst>
 </file>
@@ -147,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -155,6 +173,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +561,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +640,39 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7">
+        <v>31941</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7">
+        <v>322112</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
   </sheetData>
